--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_0.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_0.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_0.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-263724.5473518896</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>10119049.0394311</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30789066.36991068</v>
+        <v>27431348.15243265</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.398707672358336e-10</v>
+        <v>1830442.611276886</v>
       </c>
     </row>
     <row r="11">
@@ -7981,13 +7981,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8060,25 +8060,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -8142,16 +8142,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -8218,13 +8218,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8297,25 +8297,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -8379,13 +8379,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -8461,13 +8461,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -8616,16 +8616,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -8704,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8771,16 +8771,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8929,10 +8929,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9166,19 +9166,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9248,16 +9248,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9330,10 +9330,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -9406,19 +9406,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9485,10 +9485,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9567,13 +9567,13 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -9643,16 +9643,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9725,19 +9725,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9801,16 +9801,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -9877,22 +9877,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9959,10 +9959,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10284,7 +10284,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10433,22 +10433,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10597,13 +10597,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10670,19 +10670,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10752,7 +10752,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -10825,19 +10825,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10904,19 +10904,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10986,16 +10986,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11062,16 +11062,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11226,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -11302,19 +11302,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11378,19 +11378,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11463,13 +11463,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -22573,13 +22573,13 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
@@ -22588,7 +22588,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>222.3056898744495</v>
@@ -22652,25 +22652,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>145.679503963964</v>
@@ -22734,16 +22734,16 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L4" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>137.7280040491476</v>
@@ -22810,13 +22810,13 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>229.4130635965909</v>
@@ -22889,25 +22889,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>145.679503963964</v>
@@ -22971,13 +22971,13 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L7" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>138.4565384518428</v>
@@ -23053,13 +23053,13 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -23126,7 +23126,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
@@ -23135,16 +23135,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>145.679503963964</v>
@@ -23208,16 +23208,16 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>137.7280040491476</v>
@@ -23296,10 +23296,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>222.3056898744495</v>
@@ -23363,16 +23363,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -23381,7 +23381,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -23445,7 +23445,7 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L13" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>138.9257839476051</v>
@@ -23454,7 +23454,7 @@
         <v>127.6855444652332</v>
       </c>
       <c r="O13" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>137.7280040491476</v>
@@ -23521,10 +23521,10 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>230.3462332272727</v>
@@ -23533,7 +23533,7 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -23600,7 +23600,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -23685,7 +23685,7 @@
         <v>134.8846762812383</v>
       </c>
       <c r="M16" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>127.6855444652332</v>
@@ -23758,19 +23758,19 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>231.2329957552695</v>
@@ -23840,16 +23840,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -23922,10 +23922,10 @@
         <v>134.8846762812383</v>
       </c>
       <c r="M19" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>138.4565384518428</v>
@@ -23998,19 +23998,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P20" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>222.3056898744495</v>
@@ -24077,10 +24077,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -24089,7 +24089,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -24159,13 +24159,13 @@
         <v>134.8846762812383</v>
       </c>
       <c r="M22" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>137.7280040491476</v>
@@ -24235,16 +24235,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>231.2329957552695</v>
@@ -24317,19 +24317,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -24393,16 +24393,16 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L25" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>137.7280040491476</v>
@@ -24469,22 +24469,22 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K26" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M26" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>222.3056898744495</v>
@@ -24551,10 +24551,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
@@ -24630,7 +24630,7 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L28" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>138.9257839476051</v>
@@ -24706,10 +24706,10 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K29" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>230.3462332272727</v>
@@ -24721,7 +24721,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>222.3056898744495</v>
@@ -24791,7 +24791,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
@@ -24800,10 +24800,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -24876,7 +24876,7 @@
         <v>127.6855444652332</v>
       </c>
       <c r="O31" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>137.7280040491476</v>
@@ -24943,10 +24943,10 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K32" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>230.3462332272727</v>
@@ -24958,7 +24958,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>222.3056898744495</v>
@@ -25025,22 +25025,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -25104,7 +25104,7 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L34" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>138.9257839476051</v>
@@ -25113,7 +25113,7 @@
         <v>127.6855444652332</v>
       </c>
       <c r="O34" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>137.7280040491476</v>
@@ -25180,7 +25180,7 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>235.7664149699872</v>
@@ -25189,13 +25189,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>222.3056898744495</v>
@@ -25262,19 +25262,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -25344,7 +25344,7 @@
         <v>134.8846762812383</v>
       </c>
       <c r="M37" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>127.6855444652332</v>
@@ -25417,19 +25417,19 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>231.2329957552695</v>
@@ -25496,19 +25496,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -25578,16 +25578,16 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L40" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N40" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>137.7280040491476</v>
@@ -25654,16 +25654,16 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>230.0982114216867</v>
@@ -25742,7 +25742,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
@@ -25751,7 +25751,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -25818,7 +25818,7 @@
         <v>134.8846762812383</v>
       </c>
       <c r="M43" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>127.6855444652332</v>
@@ -25894,19 +25894,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>222.3056898744495</v>
@@ -25970,19 +25970,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -26055,13 +26055,13 @@
         <v>134.8846762812383</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>137.7280040491476</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>209837.1908704046</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>159712.7160830254</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>161997.4913012348</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>118047.1768982105</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>113210.6932104031</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>171865.9432306071</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>146859.5335425762</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>153201.5922240321</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>155597.4932974362</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>134292.0399462529</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>149653.4996364875</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>143226.502308654</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>188646.369883739</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>155705.3668387721</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>222126.3251375448</v>
       </c>
     </row>
   </sheetData>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2955.45339254091</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2249.474874408807</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2281.654807059645</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1662.636294340995</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1594.516805780326</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2420.647087755029</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2068.444134402481</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2157.768904563832</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2191.513990104735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1891.43718234159</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2107.795769527994</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>2017.274680403578</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2656.991125123085</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2193.033335757354</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>3128.539790669646</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660709</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660707</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660709</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
     </row>
   </sheetData>
